--- a/matematicas financieras/ejercicios/rentas.xlsx
+++ b/matematicas financieras/ejercicios/rentas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkspaceTutorialPython\matematicas financieras\ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854C1283-CD50-44DC-AC3B-E96006FFFCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BEA64A-BD42-437F-81A2-90D27F37BD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="180" windowWidth="16185" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
@@ -166,7 +167,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -182,6 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -469,7 +471,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,6 +525,10 @@
         <f>(B3*(1-POWER(1+B5,-B4)))/B5</f>
         <v>3722.9348275090892</v>
       </c>
+      <c r="D8" s="15">
+        <f>-PV(B5,B4,B3)</f>
+        <v>3722.9348275090897</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -533,6 +539,10 @@
         <v>5651.6772000000046</v>
       </c>
       <c r="C9" s="2"/>
+      <c r="D9" s="15">
+        <f>-FV(B5,B4,B3)</f>
+        <v>5651.6772000000046</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="6"/>
